--- a/fhv/data/tScenario.xlsx
+++ b/fhv/data/tScenario.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dlee/data/repo/Peru-Health-Flood/fhv/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E24FB871-12AB-4343-B245-A2D29E39E4FC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA3FFB6D-E839-4642-8627-D153619E43D2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="19200" windowHeight="19960" xr2:uid="{82DA0F99-FA41-D844-8A84-267845FF4325}"/>
   </bookViews>
@@ -478,7 +478,7 @@
   <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -508,7 +508,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D2" t="s">
         <v>1</v>
@@ -522,7 +522,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D3" t="s">
         <v>1</v>
@@ -536,7 +536,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D4" t="s">
         <v>1</v>
@@ -550,7 +550,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D5" t="s">
         <v>1</v>
